--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r106_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r106_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -853,10 +865,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -900,28 +912,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -946,28 +958,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1287,10 +1299,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1334,28 +1346,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1380,28 +1392,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1605,10 +1617,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1652,28 +1664,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1698,28 +1710,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1865,10 +1877,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1912,28 +1924,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1958,28 +1970,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2183,10 +2195,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2230,28 +2242,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2276,28 +2288,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2501,10 +2513,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2548,28 +2560,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2594,28 +2606,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2819,10 +2831,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2866,28 +2878,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2912,28 +2924,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3079,10 +3091,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3126,28 +3138,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3172,28 +3184,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3368,10 +3380,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3415,28 +3427,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3461,28 +3473,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3628,10 +3640,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3675,28 +3687,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3721,28 +3733,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3888,10 +3900,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3935,28 +3947,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3981,28 +3993,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4119,10 +4131,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4166,28 +4178,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4212,28 +4224,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4379,10 +4391,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4426,28 +4438,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4472,28 +4484,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4639,10 +4651,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4686,28 +4698,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4732,28 +4744,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4870,10 +4882,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4917,28 +4929,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4963,28 +4975,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5043,10 +5055,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5090,28 +5102,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5136,28 +5148,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5245,10 +5257,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5292,28 +5304,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5338,28 +5350,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5476,10 +5488,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5523,28 +5535,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5569,28 +5581,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5649,10 +5661,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5696,28 +5708,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5742,28 +5754,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5851,10 +5863,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5898,28 +5910,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5944,28 +5956,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6082,10 +6094,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6129,28 +6141,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6175,28 +6187,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6255,10 +6267,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6302,28 +6314,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6348,28 +6360,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6428,10 +6440,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6475,28 +6487,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6521,28 +6533,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6630,10 +6642,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6677,28 +6689,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6723,28 +6735,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6803,10 +6815,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
